--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Repositories/test-admin/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC299CE-F77D-9A4C-8728-256B7330B0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFD4D7-67ED-364F-B3DC-12BDD1836211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>URI</t>
     <phoneticPr fontId="1"/>
@@ -134,14 +134,6 @@
     <t>/login</t>
   </si>
   <si>
-    <t>管理トップ</t>
-  </si>
-  <si>
-    <t>テストユーザー新規登録
-（&lt;email&gt;/&lt;password&gt;）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/admin/user</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,10 +146,6 @@
     <t>「&lt;email&gt;」を登録しました。</t>
   </si>
   <si>
-    <t>"id": "lastInsertId"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/logout</t>
   </si>
   <si>
@@ -200,11 +188,6 @@
   </si>
   <si>
     <t>logo.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"file": "content",
-"filename": "json.filename"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,28 +289,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;name&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"search": "&lt;email&gt;"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"email": "&lt;fake.email&gt;",
-"role": ["admin"],
-"name": "&lt;fake.name&gt;",
-"password": "&lt;fake.password&gt;",
-"repassword": "&lt;password&gt;"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"name": "&lt;fake.name&gt;"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"name": "&lt;fake.name&gt;",
-"file": "[&lt;file&gt;]"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -348,12 +310,466 @@
     <t>「&lt;email&gt;」を無効にしました。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"file": "[&lt;file&gt;]"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "lastInsertId"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "content",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "json.filename"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;email&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン前にユーザー管理を表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理トップ
+admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>テストユーザー新規登録
+（&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;/&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"email": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"role": ["admin"],
+"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"password": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"repassword": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターサムネイルダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/profile/&lt;filename&gt;/thumbnail/download</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/user/create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面表示</t>
+    <rPh sb="4" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー編集画面表示</t>
+    <rPh sb="4" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/user/&lt;id&gt;/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー有効化</t>
+    <rPh sb="0" eb="3">
+      <t>ユーザー</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「&lt;email&gt;」を有効にしました。</t>
+    <rPh sb="10" eb="12">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>del_id_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "lastInsertId"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>del_id_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "lastInsertId"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 件のデータを削除しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/user/select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"users": [
+	{"selectedRows": ["&lt;del_id_1&gt;"]},
+	{"selectedRows": ["&lt;del_id_2&gt;"]}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧から、テストユーザーを一括削除</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イッカテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +814,44 @@
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -432,24 +886,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -515,13 +966,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,113 +1005,122 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009837AF-1416-3048-A90E-FB7A0AFDE433}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -959,333 +1441,526 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="2"/>
     <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="21" thickBot="1">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="43" thickTop="1">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="6">
+        <v>200</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="105">
+      <c r="A4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="22" thickTop="1">
+      <c r="A7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="42">
+      <c r="A8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="63">
+      <c r="A9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F9" s="26"/>
+      <c r="H9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="42">
-      <c r="A2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="21">
+      <c r="A10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="105">
-      <c r="A3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F10" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="22" thickBot="1">
-      <c r="A4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21">
+      <c r="A12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21">
+      <c r="A13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="43" thickTop="1">
-      <c r="A5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="42">
-      <c r="A10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10">
-        <v>200</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="42">
-      <c r="A12" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="37" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="22" thickBot="1">
-      <c r="A16" s="30" t="s">
+      <c r="D15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="4">
+        <v>200</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21">
+      <c r="A21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="105">
+      <c r="A24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="105">
+      <c r="A25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="84">
+      <c r="A26" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" ht="22" thickBot="1">
+      <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" thickTop="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="11"/>
+      <c r="C27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" thickTop="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Repositories/test-admin/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFD4D7-67ED-364F-B3DC-12BDD1836211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB469B4F-191C-EB45-9244-5934097523CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
@@ -138,11 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"email": "admin",
-"password": "admin"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「&lt;email&gt;」を登録しました。</t>
   </si>
   <si>
@@ -153,11 +148,6 @@
   </si>
   <si>
     <t>&lt;email&gt;ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"email": "&lt;email&gt;",
-"password": "&lt;password&gt;"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -243,11 +233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">"email": "&lt;email&gt;"
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストユーザー削除</t>
     <rPh sb="7" eb="9">
       <t>サクジヨ</t>
@@ -286,10 +271,6 @@
   </si>
   <si>
     <t>/admin/user/search</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"search": "&lt;email&gt;"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,142 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>"name": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fake.name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"name": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fake.name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;",
-"file": "[&lt;file&gt;]"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "lastInsertId"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "content",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>filename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "json.filename"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;email&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -510,98 +355,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>&gt;）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"email": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;",
-"role": ["admin"],
-"name": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fake.name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;",
-"password": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;",
-"repassword": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;"</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,74 +437,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>del_id_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "lastInsertId"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>del_id_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "lastInsertId"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2 件のデータを削除しました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/admin/user/select</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"users": [
-	{"selectedRows": ["&lt;del_id_1&gt;"]},
-	{"selectedRows": ["&lt;del_id_2&gt;"]}
-]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -764,12 +454,393 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>{"email": "admin",
+"password": "admin"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"email": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"role": ["admin"],
+"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"password": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"repassword": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"search": "&lt;email&gt;"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"email": "&lt;email&gt;",
+"password": "&lt;password&gt;"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"email": "&lt;email&gt;"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"users": [
+	{"selectedRows": ["&lt;del_id_1&gt;"]},
+	{"selectedRows": ["&lt;del_id_2&gt;"]}
+]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"file": "[{\"filename\": \"&lt;filename&gt;\",\n\"name\": \"&lt;name&gt;\",\n\"size\": \"&lt;size&gt;\",\n\"thumbnail\": \"&lt;thumbnail&gt;\"}]"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lastInsertId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{"del_id_1": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lastInsertId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{"del_id_2": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lastInsertId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{"filename": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>json.filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>",
+"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>json.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>",
+"size": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>json.size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>",
+"thumbnail": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>json.thumbnail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,6 +922,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -994,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1192,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1444,12 +1528,12 @@
     <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="2"/>
     <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
@@ -1465,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>9</v>
@@ -1477,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43" thickTop="1">
@@ -1497,11 +1581,11 @@
         <v>13</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -1510,13 +1594,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="5"/>
@@ -1530,7 +1614,7 @@
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1539,30 +1623,30 @@
         <v>14</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22" thickBot="1">
@@ -1587,10 +1671,10 @@
     </row>
     <row r="7" spans="1:10" ht="22" thickTop="1">
       <c r="A7" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>14</v>
@@ -1607,7 +1691,7 @@
     </row>
     <row r="8" spans="1:10" ht="42">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -1616,11 +1700,11 @@
         <v>1</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
@@ -1629,7 +1713,7 @@
     </row>
     <row r="9" spans="1:10" ht="63">
       <c r="A9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1638,98 +1722,98 @@
         <v>14</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F9" s="26"/>
       <c r="H9" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="26"/>
       <c r="F15" s="26"/>
@@ -1737,37 +1821,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="42">
+    <row r="16" spans="1:10" ht="84">
       <c r="A16" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="4">
         <v>200</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>57</v>
+      <c r="I16" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="4">
@@ -1776,98 +1860,98 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="42">
+    <row r="19" spans="1:10" ht="126">
       <c r="A19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105">
       <c r="A24" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1876,18 +1960,18 @@
         <v>14</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="105">
       <c r="A25" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1896,31 +1980,31 @@
         <v>14</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="84">
       <c r="A26" s="39" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="36" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
@@ -1935,12 +2019,12 @@
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>

--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Repositories/test-admin/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB469B4F-191C-EB45-9244-5934097523CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45E079-949D-F64D-8A32-371A4D0AAD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,54 +630,6 @@
   </si>
   <si>
     <r>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>lastInsertId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="游ゴシック"/>
@@ -830,6 +782,54 @@
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>maxId.users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -1629,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21">
@@ -1840,7 +1840,7 @@
         <v>200</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="105">
@@ -1986,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="84">

--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Repositories/test-admin/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45E079-949D-F64D-8A32-371A4D0AAD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831718F-4604-6F45-95E7-0BF2DB742364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
+    <workbookView xWindow="11740" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>URI</t>
     <phoneticPr fontId="1"/>
@@ -833,6 +833,17 @@
       </rPr>
       <t>"}</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに失敗しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;email&gt;ログイン失敗</t>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1072,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1209,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1516,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009837AF-1416-3048-A90E-FB7A0AFDE433}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2011,40 +2025,62 @@
       <c r="I26" s="38"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:10" ht="22" thickBot="1">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:10" ht="21">
+      <c r="A27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" thickTop="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="C29" s="26"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="43" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" thickTop="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Repositories/test-admin/vendor/blocs/admin/tests/Feature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyukiyada/Repositories/test-laravel/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831718F-4604-6F45-95E7-0BF2DB742364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13178DEF-2F28-7E4D-9942-8DADA9B96C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
+    <workbookView xWindow="5400" yWindow="780" windowWidth="28800" windowHeight="15920" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>URI</t>
     <phoneticPr fontId="1"/>
@@ -356,14 +356,6 @@
       </rPr>
       <t>&gt;）</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャッシュクリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/clear</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1083,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,9 +1176,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1530,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009837AF-1416-3048-A90E-FB7A0AFDE433}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1595,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
@@ -1606,290 +1595,287 @@
       <c r="I2" s="25"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="6">
-        <v>200</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="105">
-      <c r="A4" s="16" t="s">
+    <row r="3" spans="1:10" ht="105">
+      <c r="A3" s="16" t="s">
         <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22" thickBot="1">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="22" thickTop="1">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="42">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="63">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="22" thickBot="1">
-      <c r="A6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="22" thickTop="1">
-      <c r="A7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="F8" s="26"/>
+      <c r="H8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="42">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="H9" s="33" t="s">
-        <v>38</v>
+      <c r="F9" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="84">
       <c r="A15" s="15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D15" s="26"/>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="26"/>
       <c r="G15" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="84">
+      <c r="I15" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="4">
         <v>200</v>
       </c>
-      <c r="I16" s="41" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="126">
       <c r="A18" s="15" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="126">
+        <v>30</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21">
       <c r="A19" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1897,8 +1883,8 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>76</v>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>31</v>
@@ -1906,24 +1892,21 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -1932,35 +1915,41 @@
         <v>48</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="105">
+      <c r="A23" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105">
@@ -1974,113 +1963,93 @@
         <v>14</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="105">
-      <c r="A25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="I24" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="84">
+      <c r="A25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="C26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" ht="43" thickBot="1">
+      <c r="A27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="84">
-      <c r="A26" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="1:10" ht="43" thickBot="1">
-      <c r="A28" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" thickTop="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="C30" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" thickTop="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tests/Feature/script.xlsx
+++ b/tests/Feature/script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyukiyada/Repositories/test-laravel/vendor/blocs/admin/tests/Feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13178DEF-2F28-7E4D-9942-8DADA9B96C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB042B2-E239-6A4C-A4CD-087A2710E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="780" windowWidth="28800" windowHeight="15920" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
+    <workbookView xWindow="10460" yWindow="780" windowWidth="34200" windowHeight="19860" xr2:uid="{A2939D24-18F6-CD49-B448-CA91A1206628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,34 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>{"name": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fake.name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;"}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{"users": [
 	{"selectedRows": ["&lt;del_id_1&gt;"]},
 	{"selectedRows": ["&lt;del_id_2&gt;"]}
@@ -593,35 +565,6 @@
   </si>
   <si>
     <r>
-      <t>{"name": "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fake.name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;",
-"file": "[{\"filename\": \"&lt;filename&gt;\",\n\"name\": \"&lt;name&gt;\",\n\"size\": \"&lt;size&gt;\",\n\"thumbnail\": \"&lt;thumbnail&gt;\"}]"}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="游ゴシック"/>
@@ -836,6 +779,85 @@
     <rPh sb="11" eb="13">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"email": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"email": "&lt;email&gt;",
+"name": "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>fake.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;",
+"file": "[{\"filename\": \"&lt;filename&gt;\",\n\"name\": \"&lt;name&gt;\",\n\"size\": \"&lt;size&gt;\",\n\"thumbnail\": \"&lt;thumbnail&gt;\"}]"}</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1223,9 +1245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1263,7 +1285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1369,7 +1391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1511,7 +1533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1522,8 +1544,8 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1612,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
@@ -1771,7 +1793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21">
+    <row r="13" spans="1:10" ht="42">
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1781,8 +1803,8 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
+      <c r="D13" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>22</v>
@@ -1823,7 +1845,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1856,7 +1878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="126">
+    <row r="18" spans="1:10" ht="147">
       <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
@@ -1867,13 +1889,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21">
+    <row r="19" spans="1:10" ht="42">
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
@@ -1883,8 +1905,8 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
+      <c r="D19" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>31</v>
@@ -1949,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105">
@@ -1969,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="84">
@@ -1983,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="35" t="s">
@@ -2016,7 +2038,7 @@
     </row>
     <row r="27" spans="1:10" ht="43" thickBot="1">
       <c r="A27" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>12</v>
@@ -2029,7 +2051,7 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
